--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_drugs_pharmaceutical.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_drugs_pharmaceutical.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.255</v>
+        <v>-0.186</v>
       </c>
       <c r="G2">
-        <v>-0.5383256351039262</v>
+        <v>-0.6890612244897959</v>
       </c>
       <c r="H2">
-        <v>-0.546189376443418</v>
+        <v>-0.6938775510204082</v>
       </c>
       <c r="I2">
-        <v>-1.844110854503464</v>
+        <v>-0.3700680272108843</v>
       </c>
       <c r="J2">
-        <v>-1.844110854503464</v>
+        <v>-0.3700680272108843</v>
       </c>
       <c r="K2">
-        <v>-264.7</v>
+        <v>-59</v>
       </c>
       <c r="L2">
-        <v>-3.056581986143187</v>
+        <v>-0.4013605442176871</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>13.3</v>
+        <v>19.8</v>
       </c>
       <c r="V2">
-        <v>0.04315379623621025</v>
+        <v>0.0473344489600765</v>
       </c>
       <c r="W2">
-        <v>-0.5416410886024146</v>
+        <v>-0.2648114901256732</v>
       </c>
       <c r="X2">
-        <v>0.1094001556396361</v>
+        <v>0.06574978439478497</v>
       </c>
       <c r="Y2">
-        <v>-0.6510412442420506</v>
+        <v>-0.3305612745204582</v>
       </c>
       <c r="Z2">
-        <v>0.1245147375988497</v>
+        <v>0.3413841151881096</v>
       </c>
       <c r="AA2">
-        <v>-0.2296189791516894</v>
+        <v>-0.126335346028797</v>
       </c>
       <c r="AB2">
-        <v>0.07162422139070185</v>
+        <v>0.0512906171752674</v>
       </c>
       <c r="AC2">
-        <v>-0.3012432005423913</v>
+        <v>-0.1776259632040644</v>
       </c>
       <c r="AD2">
-        <v>221.1</v>
+        <v>160.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>221.1</v>
+        <v>160.4</v>
       </c>
       <c r="AG2">
-        <v>207.8</v>
+        <v>140.6</v>
       </c>
       <c r="AH2">
-        <v>0.4177215189873418</v>
+        <v>0.277172973907033</v>
       </c>
       <c r="AI2">
-        <v>0.4479335494327391</v>
+        <v>0.3173723783142066</v>
       </c>
       <c r="AJ2">
-        <v>0.4027131782945736</v>
+        <v>0.2515655752370728</v>
       </c>
       <c r="AK2">
-        <v>0.4326462627524464</v>
+        <v>0.2895387149917628</v>
       </c>
       <c r="AL2">
-        <v>9.390000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AM2">
-        <v>8.873000000000001</v>
+        <v>9.728000000000002</v>
       </c>
       <c r="AN2">
-        <v>-1.632939438700148</v>
+        <v>-5.608391608391608</v>
       </c>
       <c r="AO2">
-        <v>-17.00745473908413</v>
+        <v>-5.281553398058252</v>
       </c>
       <c r="AP2">
-        <v>-1.534711964549483</v>
+        <v>-4.916083916083916</v>
       </c>
       <c r="AQ2">
-        <v>-17.99842217964611</v>
+        <v>-5.592105263157894</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.255</v>
+        <v>-0.186</v>
       </c>
       <c r="G3">
-        <v>-0.5383256351039262</v>
+        <v>-0.6890612244897959</v>
       </c>
       <c r="H3">
-        <v>-0.546189376443418</v>
+        <v>-0.6938775510204082</v>
       </c>
       <c r="I3">
-        <v>-1.844110854503464</v>
+        <v>-0.3700680272108843</v>
       </c>
       <c r="J3">
-        <v>-1.844110854503464</v>
+        <v>-0.3700680272108843</v>
       </c>
       <c r="K3">
-        <v>-264.7</v>
+        <v>-59</v>
       </c>
       <c r="L3">
-        <v>-3.056581986143187</v>
+        <v>-0.4013605442176871</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>13.3</v>
+        <v>19.8</v>
       </c>
       <c r="V3">
-        <v>0.04315379623621025</v>
+        <v>0.0473344489600765</v>
       </c>
       <c r="W3">
-        <v>-0.5416410886024146</v>
+        <v>-0.2648114901256732</v>
       </c>
       <c r="X3">
-        <v>0.1094001556396361</v>
+        <v>0.06574978439478497</v>
       </c>
       <c r="Y3">
-        <v>-0.6510412442420506</v>
+        <v>-0.3305612745204582</v>
       </c>
       <c r="Z3">
-        <v>0.1245147375988497</v>
+        <v>0.3413841151881096</v>
       </c>
       <c r="AA3">
-        <v>-0.2296189791516894</v>
+        <v>-0.126335346028797</v>
       </c>
       <c r="AB3">
-        <v>0.07162422139070185</v>
+        <v>0.0512906171752674</v>
       </c>
       <c r="AC3">
-        <v>-0.3012432005423913</v>
+        <v>-0.1776259632040644</v>
       </c>
       <c r="AD3">
-        <v>221.1</v>
+        <v>160.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>221.1</v>
+        <v>160.4</v>
       </c>
       <c r="AG3">
-        <v>207.8</v>
+        <v>140.6</v>
       </c>
       <c r="AH3">
-        <v>0.4177215189873418</v>
+        <v>0.277172973907033</v>
       </c>
       <c r="AI3">
-        <v>0.4479335494327391</v>
+        <v>0.3173723783142066</v>
       </c>
       <c r="AJ3">
-        <v>0.4027131782945736</v>
+        <v>0.2515655752370728</v>
       </c>
       <c r="AK3">
-        <v>0.4326462627524464</v>
+        <v>0.2895387149917628</v>
       </c>
       <c r="AL3">
-        <v>9.390000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AM3">
-        <v>8.873000000000001</v>
+        <v>9.728000000000002</v>
       </c>
       <c r="AN3">
-        <v>-1.632939438700148</v>
+        <v>-5.608391608391608</v>
       </c>
       <c r="AO3">
-        <v>-17.00745473908413</v>
+        <v>-5.281553398058252</v>
       </c>
       <c r="AP3">
-        <v>-1.534711964549483</v>
+        <v>-4.916083916083916</v>
       </c>
       <c r="AQ3">
-        <v>-17.99842217964611</v>
+        <v>-5.592105263157894</v>
       </c>
     </row>
   </sheetData>
